--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92129\IdeaProjects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B595F3C6-CB16-45A4-9A94-9BF24DD6B227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C263E5-B27E-4A4C-98AA-D1244248D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Tooltip Mapping" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -625,22 +626,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="51.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="6" customWidth="1"/>
     <col min="6" max="12" width="15" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="6"/>
+    <col min="13" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -734,7 +735,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -762,7 +763,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -790,7 +791,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -818,7 +819,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -846,33 +847,47 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" s="8"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E173" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8998252D-8934-4923-BAE2-E6D038E56598}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -927,31 +942,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1197,6 +1187,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
   <ds:schemaRefs>
@@ -1206,9 +1221,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1233,22 +1261,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92129\IdeaProjects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Documents\Dataland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C263E5-B27E-4A4C-98AA-D1244248D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F2B73-3113-44DE-B401-4A2CAAD16E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Tooltip Mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Custom Component Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="215">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -89,22 +89,583 @@
     <t>The undertaking carries out, funds, or has exposures to construction, refurbishment and operation of heat generation facilities that produce heat/cool using fossil gaseous fuels.</t>
   </si>
   <si>
-    <t>Nuclear energy related activities (Section 4.26)</t>
-  </si>
-  <si>
-    <t>Nuclear energy related activities (Section 4.27)</t>
-  </si>
-  <si>
-    <t>Nuclear energy related activities (Section 4.28)</t>
-  </si>
-  <si>
-    <t>Fossil gas related activities (Section 4.29)</t>
-  </si>
-  <si>
-    <t>Fossil gas related activities (Section 4.30)</t>
-  </si>
-  <si>
-    <t>Fossil gas related activities (Section 4.31)</t>
+    <t>CustomComponent</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Aligned (Denominator)</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Aligned (Numerator)</t>
+  </si>
+  <si>
+    <t>Eligible but not aligned</t>
+  </si>
+  <si>
+    <t>Non-Eligible</t>
+  </si>
+  <si>
+    <t>Nuclear Energy related Activities (Section 4.26)</t>
+  </si>
+  <si>
+    <t>Fossil Gas related Activities (Section 4.29)</t>
+  </si>
+  <si>
+    <t>Fossil Gas related Activities (Section 4.30)</t>
+  </si>
+  <si>
+    <t>Fossil Gas related Activities (Section 4.31)</t>
+  </si>
+  <si>
+    <t>Nuclear Energy related Activities (Section 4.27)</t>
+  </si>
+  <si>
+    <t>Nuclear Energy related Activities (Section 4.28)</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Total applicable KPI. Taxonomy-aligned share (denominator) substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Total applicable KPI. Taxonomy-aligned share (denominator) substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation</t>
+  </si>
+  <si>
+    <t>Total applicable KPI. Taxonomy-aligned share (denominator) substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Mitigation - Other Activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) substantially contributing to Climate Change Adaptation - Other Activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation) - Other Activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Denominator) (Climate Change Mitigation and Climate Change Adaptation)</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation) - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) (Climate Change Mitigation and Climate Change Adaptation)</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share (Numerator) substantially contributing to Climate Change Adaptation</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation) - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share (Climate Change Mitigation and Climate Change Adaptation)</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation)</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in Sections 4.26-4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in Sections 4.26-4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in Sections 4.26-4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the numerator of the applicable KPI to Climate Change Mitigation and Climate Change Adaptation  - other activities.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation - other activities.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the numerator of the applicable KPI substantially contributing to Climate Change Adaptation - other activities.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-aligned economic activities in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-aligned economic activities in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-aligned economic activities in the numerator of the applicable KP substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-eligible but not taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation - other activities.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-eligible but not taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation - other activities.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of taxonomy-eligible but not taxonomy-aligned economic activity referred to in Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-eligible but not taxonomy-aligned economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation  - other activities.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-eligible but not taxonomy-aligned economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-eligible but not taxonomy-aligned economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-eligible but not taxonomy-aligned economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 2 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 2 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 3 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 3 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 4 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 4 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 5 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 5 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 6 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 6 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-non-eligible economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation - other activities.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-non-eligible economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation - other activities.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-non-eligible economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-non-eligible economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 2 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 3 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 4 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 5 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of economic activity referred to in row 6 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
+  </si>
+  <si>
+    <t>Proportion of other taxonomy-non-eligible economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation - other activities.</t>
+  </si>
+  <si>
+    <t>Total proportion of taxonomy-non-eligible economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
   </si>
 </sst>
 </file>
@@ -205,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -307,6 +868,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -319,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -371,6 +1043,61 @@
       <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -627,21 +1354,22 @@
   <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" style="6" customWidth="1"/>
-    <col min="6" max="12" width="15" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="35.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="6" customWidth="1"/>
+    <col min="7" max="12" width="15" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,9 +1407,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -690,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>16</v>
@@ -707,9 +1435,9 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -718,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
@@ -735,9 +1463,9 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -746,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>18</v>
@@ -763,9 +1491,9 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -774,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>19</v>
@@ -791,9 +1519,9 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -802,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>20</v>
@@ -819,9 +1547,9 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -830,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -847,28 +1575,320 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" s="8"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" s="8"/>
     </row>
   </sheetData>
@@ -878,70 +1898,2322 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8998252D-8934-4923-BAE2-E6D038E56598}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C899FC4-CD15-4806-A04E-7A6BABA59C0A}">
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="15" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="28" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>44</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>47</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="32">
+        <v>48</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>49</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>50</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>51</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>52</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <v>54</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>55</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>56</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <v>57</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>58</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>59</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>60</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>61</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>62</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>63</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>64</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>65</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <v>66</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <v>67</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <v>68</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <v>69</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <v>70</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
+        <v>71</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="32">
+        <v>72</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
+        <v>73</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
+        <v>74</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
+        <v>75</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
+        <v>76</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
+        <v>77</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
+        <v>78</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
+        <v>79</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <v>80</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <v>81</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <v>82</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
+        <v>83</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23">
+        <v>84</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
+        <v>85</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
+        <v>86</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
+        <v>87</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23">
+        <v>88</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
+        <v>89</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
+        <v>90</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+    </row>
+    <row r="92" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
+        <v>91</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+    </row>
+    <row r="93" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23">
+        <v>92</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+    </row>
+    <row r="94" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="23">
+        <v>93</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+    </row>
+    <row r="95" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="23">
+        <v>94</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+    </row>
+    <row r="96" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="23">
+        <v>95</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="32">
+        <v>96</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+    </row>
+    <row r="145" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="170" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="8"/>
+    </row>
+    <row r="171" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="8"/>
+    </row>
+    <row r="173" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1187,40 +4459,84 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1241,29 +4557,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Documents\Dataland\Taxonomy and Frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93447\Documents\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90549E64-1797-4597-9727-16D08DABC138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687165E-F597-4C45-8B03-3F52709B52F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1193" yWindow="442" windowWidth="26242" windowHeight="14761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="238">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -86,9 +86,6 @@
     <t>The undertaking carries out, funds, or has exposures to construction, refurbishment and operation of heat generation facilities that produce heat/cool using fossil gaseous fuels.</t>
   </si>
   <si>
-    <t>CustomComponent</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
@@ -726,6 +723,18 @@
   </si>
   <si>
     <t>Proportion of Taxonomy-non-eligible Economic Activity referred to in Sections 4.26 to 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI - Revenue-based</t>
+  </si>
+  <si>
+    <t>CustomComponent Aligned (Denominator)</t>
+  </si>
+  <si>
+    <t>CustomComponent Aligned (Numerator)</t>
+  </si>
+  <si>
+    <t>CustomComponent Eligible but not aligned</t>
+  </si>
+  <si>
+    <t>CustomComponent Non-Eligible</t>
   </si>
 </sst>
 </file>
@@ -1467,23 +1476,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="143.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.46484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.73046875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
     <col min="7" max="12" width="15" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="4"/>
+    <col min="13" max="16384" width="8.73046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -1529,10 +1538,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>15</v>
@@ -1549,7 +1558,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="44">
         <v>2</v>
       </c>
@@ -1557,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>16</v>
@@ -1577,7 +1586,7 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="44">
         <v>3</v>
       </c>
@@ -1585,10 +1594,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>17</v>
@@ -1605,7 +1614,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44">
         <v>4</v>
       </c>
@@ -1613,10 +1622,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>18</v>
@@ -1633,7 +1642,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44">
         <v>5</v>
       </c>
@@ -1641,10 +1650,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>19</v>
@@ -1661,7 +1670,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="45">
         <v>6</v>
       </c>
@@ -1669,10 +1678,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>20</v>
@@ -1689,7 +1698,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44">
         <v>7</v>
       </c>
@@ -1697,16 +1706,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
@@ -1717,7 +1726,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44">
         <v>8</v>
       </c>
@@ -1725,16 +1734,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -1745,7 +1754,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44">
         <v>9</v>
       </c>
@@ -1753,16 +1762,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -1773,7 +1782,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44">
         <v>10</v>
       </c>
@@ -1781,16 +1790,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="24"/>
@@ -1801,7 +1810,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:12" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="25" customFormat="1" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A12" s="44">
         <v>11</v>
       </c>
@@ -1809,16 +1818,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
@@ -1829,7 +1838,7 @@
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="25" customFormat="1" ht="23.25" x14ac:dyDescent="0.4">
       <c r="A13" s="44">
         <v>12</v>
       </c>
@@ -1837,16 +1846,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
@@ -1857,7 +1866,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44">
         <v>13</v>
       </c>
@@ -1865,16 +1874,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
@@ -1885,7 +1894,7 @@
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="45">
         <v>14</v>
       </c>
@@ -1893,16 +1902,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
@@ -1913,7 +1922,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1927,7 +1936,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1941,7 +1950,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1955,7 +1964,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1969,7 +1978,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1983,7 +1992,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1997,28 +2006,28 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E148" s="5"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E173" s="5"/>
     </row>
   </sheetData>
@@ -2031,26 +2040,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C899FC4-CD15-4806-A04E-7A6BABA59C0A}">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="119.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.9296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="119.33203125" style="4" customWidth="1"/>
     <col min="5" max="11" width="15" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="4"/>
+    <col min="12" max="16384" width="8.73046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2080,21 +2087,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="6"/>
@@ -2103,21 +2110,21 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
@@ -2126,21 +2133,21 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
@@ -2149,21 +2156,21 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
@@ -2172,21 +2179,21 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6"/>
@@ -2195,21 +2202,21 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="6"/>
@@ -2218,21 +2225,21 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6"/>
@@ -2241,21 +2248,21 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="6"/>
@@ -2264,21 +2271,21 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
@@ -2287,21 +2294,21 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="6"/>
@@ -2310,21 +2317,21 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
@@ -2333,21 +2340,21 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
@@ -2356,21 +2363,21 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="6"/>
@@ -2379,21 +2386,21 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="6"/>
@@ -2402,21 +2409,21 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
@@ -2425,21 +2432,21 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="6"/>
@@ -2448,21 +2455,21 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="6"/>
@@ -2471,21 +2478,21 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="6"/>
@@ -2494,21 +2501,21 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
@@ -2517,21 +2524,21 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
@@ -2540,21 +2547,21 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="6"/>
@@ -2563,21 +2570,21 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
@@ -2586,21 +2593,21 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
@@ -2609,21 +2616,21 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="10" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
@@ -2632,21 +2639,21 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
@@ -2655,21 +2662,21 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
@@ -2678,21 +2685,21 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
@@ -2701,21 +2708,21 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="6"/>
@@ -2724,21 +2731,21 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="6"/>
@@ -2747,21 +2754,21 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="6"/>
@@ -2770,21 +2777,21 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="6"/>
@@ -2793,21 +2800,21 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="6"/>
@@ -2816,21 +2823,21 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="6"/>
@@ -2839,21 +2846,21 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="6"/>
@@ -2862,21 +2869,21 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="6"/>
@@ -2885,21 +2892,21 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="6"/>
@@ -2908,21 +2915,21 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="6"/>
@@ -2931,21 +2938,21 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="6"/>
@@ -2954,21 +2961,21 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="6"/>
@@ -2977,21 +2984,21 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="6"/>
@@ -3000,21 +3007,21 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="6"/>
@@ -3023,21 +3030,21 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
@@ -3046,21 +3053,21 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
@@ -3069,21 +3076,21 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
@@ -3092,21 +3099,21 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="6"/>
@@ -3115,21 +3122,21 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="6"/>
@@ -3138,21 +3145,21 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="6"/>
@@ -3161,21 +3168,21 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
@@ -3184,21 +3191,21 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="6"/>
@@ -3207,21 +3214,21 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="6"/>
@@ -3230,21 +3237,21 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="6"/>
@@ -3253,21 +3260,21 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="6"/>
@@ -3276,21 +3283,21 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="6"/>
@@ -3299,21 +3306,21 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="6"/>
@@ -3322,21 +3329,21 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="6"/>
@@ -3345,21 +3352,21 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="6"/>
@@ -3368,21 +3375,21 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="6"/>
@@ -3391,21 +3398,21 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="6"/>
@@ -3414,21 +3421,21 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="6"/>
@@ -3437,21 +3444,21 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="6"/>
@@ -3460,21 +3467,21 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="6"/>
@@ -3483,21 +3490,21 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="6"/>
@@ -3506,21 +3513,21 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="6"/>
@@ -3529,21 +3536,21 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="6"/>
@@ -3552,21 +3559,21 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="6"/>
@@ -3575,21 +3582,21 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="6"/>
@@ -3598,21 +3605,21 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="6"/>
@@ -3621,21 +3628,21 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="6"/>
@@ -3644,21 +3651,21 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="6"/>
@@ -3667,21 +3674,21 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="6"/>
@@ -3690,21 +3697,21 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="6"/>
@@ -3713,21 +3720,21 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
@@ -3736,21 +3743,21 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="6"/>
@@ -3759,21 +3766,21 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="6"/>
@@ -3782,21 +3789,21 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="6"/>
@@ -3805,21 +3812,21 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
@@ -3828,21 +3835,21 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="6"/>
@@ -3851,21 +3858,21 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="6"/>
@@ -3874,21 +3881,21 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="6"/>
@@ -3897,21 +3904,21 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="6"/>
@@ -3920,21 +3927,21 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="6"/>
@@ -3943,21 +3950,21 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="6"/>
@@ -3966,21 +3973,21 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="6"/>
@@ -3989,21 +3996,21 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="6"/>
@@ -4012,21 +4019,21 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="6"/>
@@ -4035,21 +4042,21 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="6"/>
@@ -4058,21 +4065,21 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="6"/>
@@ -4081,21 +4088,21 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="6"/>
@@ -4104,21 +4111,21 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="6"/>
@@ -4127,21 +4134,21 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="6"/>
@@ -4150,21 +4157,21 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="6"/>
@@ -4173,21 +4180,21 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="6"/>
@@ -4196,21 +4203,21 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="6"/>
@@ -4219,21 +4226,21 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="6"/>
@@ -4242,21 +4249,21 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="6"/>
@@ -4265,21 +4272,21 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="14">
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
@@ -4288,28 +4295,28 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="145" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D148" s="5"/>
     </row>
-    <row r="170" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D173" s="5"/>
     </row>
   </sheetData>
@@ -4319,65 +4326,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -4623,39 +4587,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4676,21 +4686,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93447\Documents\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Documents\Dataland\Taxonomy and Frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687165E-F597-4C45-8B03-3F52709B52F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28A974-ACFE-4B1B-84DC-0329588A83F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1193" yWindow="442" windowWidth="26242" windowHeight="14761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="206">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>Nuclear and Gas</t>
-  </si>
-  <si>
     <t>The undertaking carries out, funds, or has exposures to research, development, demonstration and deployment of innovative electricity generation facilities that produce energy from nuclear processes with minimal waste from the fuel cycle.</t>
   </si>
   <si>
@@ -347,78 +344,6 @@
     <t>Taxonomy-eligible but not aligned Share substantially contributing to Climate Change Adaptation</t>
   </si>
   <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.26</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.26</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.26</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.27</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.27</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.27</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.28</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.28</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.28</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.29</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.29</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.29</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.30</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.30</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.30</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - N&amp;G 4.31</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - N&amp;G 4.31</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - N&amp;G 4.31</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation) - other activities</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation - other activities</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation - other activities</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share (Climate Change Mitigation and Climate Change Adaptation)</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Mitigation</t>
-  </si>
-  <si>
-    <t>Taxonomy-non-eligible Share substantially contributing to Climate Change Adaptation</t>
-  </si>
-  <si>
     <t>Proportion of taxonomy-aligned economic activity referred to in Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
   </si>
   <si>
@@ -590,54 +515,6 @@
     <t>Total proportion of taxonomy-eligible but not taxonomy-aligned economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
   </si>
   <si>
-    <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 2 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 2 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.27 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 3 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 3 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.28 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 4 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 4 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.29 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 5 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 5 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.30 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 6 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Proportion of economic activity referred to in row 6 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
-    <t>Proportion of other taxonomy-non-eligible economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation - other activities.</t>
-  </si>
-  <si>
-    <t>Proportion of other taxonomy-non-eligible economic activities not referred to in rows 1 to 6 above in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation - other activities.</t>
-  </si>
-  <si>
-    <t>Total proportion of taxonomy-non-eligible economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation.</t>
-  </si>
-  <si>
-    <t>Total proportion of taxonomy-non-eligible economic activities in the denominator of the applicable KPI substantially contributing to Climate Change Adaptation.</t>
-  </si>
-  <si>
     <t>Proportion of economic activity referred to in row 1 of Template 1 that is taxonomy-non-eligible in accordance with Section 4.26 of Annexes I and II to Delegated Regulation 2021/2139 in the denominator of the applicable KPI substantially contributing to Climate Change Mitigation and Climate Change Adaptation.</t>
   </si>
   <si>
@@ -723,6 +600,33 @@
   </si>
   <si>
     <t>Proportion of Taxonomy-non-eligible Economic Activity referred to in Sections 4.26 to 4.31 of Annexes I and II to Delegated Regulation 2021/2139 in the numerator of the applicable KPI - Revenue-based</t>
+  </si>
+  <si>
+    <t>Allowed Range: [0, INF]</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.26</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.27</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.28</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.29</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.30</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - N&amp;G 4.31</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share - other activities</t>
+  </si>
+  <si>
+    <t>Taxonomy-non-eligible Share</t>
   </si>
   <si>
     <t>CustomComponent Aligned (Denominator)</t>
@@ -741,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -795,8 +699,14 @@
       <name val="Roboto"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,8 +755,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1072,6 +988,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1084,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1196,9 +1136,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1211,9 +1148,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1222,6 +1156,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1476,23 +1422,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.73046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="143.90625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="4" customWidth="1"/>
     <col min="7" max="12" width="15" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.73046875" style="4"/>
+    <col min="13" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,21 +1476,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44">
+    <row r="2" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>13</v>
@@ -1558,21 +1502,19 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44">
+    <row r="3" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>213</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C3" s="21"/>
       <c r="D3" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>13</v>
@@ -1586,21 +1528,19 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44">
+    <row r="4" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>213</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>13</v>
@@ -1614,21 +1554,19 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44">
+    <row r="5" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>213</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>13</v>
@@ -1642,21 +1580,19 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
+    <row r="6" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>213</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>13</v>
@@ -1670,21 +1606,19 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="45">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>213</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>13</v>
@@ -1698,24 +1632,22 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44">
+    <row r="8" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>214</v>
-      </c>
+      <c r="B8" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="46"/>
       <c r="D8" s="33" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
@@ -1726,24 +1658,22 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44">
+    <row r="9" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>214</v>
-      </c>
+      <c r="B9" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="33" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -1754,24 +1684,22 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44">
+    <row r="10" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="B10" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="33" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -1782,24 +1710,22 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44">
+    <row r="11" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="B11" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="33" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="24"/>
@@ -1810,52 +1736,48 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:12" s="25" customFormat="1" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="44">
+    <row r="12" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>216</v>
-      </c>
+      <c r="B12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" s="25" customFormat="1" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="44">
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>216</v>
-      </c>
+      <c r="B13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>231</v>
+        <v>182</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>190</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
@@ -1866,24 +1788,22 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44">
+    <row r="14" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>217</v>
-      </c>
+      <c r="B14" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="33" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
@@ -1894,24 +1814,22 @@
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="45">
+    <row r="15" spans="1:12" s="32" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>233</v>
+      <c r="B15" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
@@ -1922,7 +1840,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1936,7 +1854,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1950,7 +1868,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1964,7 +1882,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1978,7 +1896,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1992,7 +1910,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2006,28 +1924,28 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E148" s="5"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E173" s="5"/>
     </row>
   </sheetData>
@@ -2038,26 +1956,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C899FC4-CD15-4806-A04E-7A6BABA59C0A}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C74:C81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.06640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.06640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.9296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="119.33203125" style="4" customWidth="1"/>
-    <col min="5" max="11" width="15" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.73046875" style="4"/>
+    <col min="1" max="1" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="119.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="15" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2087,2237 +2009,2029 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>193</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" s="10" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="14">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="9">
-        <v>81</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="9">
-        <v>82</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="9">
-        <v>83</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="9">
-        <v>84</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="9">
-        <v>85</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="9">
-        <v>86</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="9">
-        <v>87</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="9">
-        <v>88</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="9">
-        <v>89</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="9">
-        <v>90</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="9">
-        <v>91</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="9">
-        <v>92</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="9">
-        <v>93</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="9">
-        <v>94</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="9">
-        <v>95</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="1:11" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="14">
-        <v>96</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-    </row>
-    <row r="145" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D148" s="5"/>
-    </row>
-    <row r="170" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="4:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D173" s="5"/>
+    <row r="129" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="5"/>
+    </row>
+    <row r="154" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="4:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4326,22 +4040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -4587,7 +4285,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -4637,7 +4335,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4646,26 +4344,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4686,7 +4381,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -4694,10 +4389,29 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0B744-8F11-42F3-ABFA-2D188AEF2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C6B73-60C3-4A92-A623-936547AB6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Custom NuclearAndGasNonEligibleComponent</t>
+  </si>
+  <si>
+    <t>Referenced Reports</t>
+  </si>
+  <si>
+    <t>Please upload all relevant reports for this dataset in the PDF format.</t>
+  </si>
+  <si>
+    <t>Report Preupload</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -389,15 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -459,6 +462,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -466,7 +480,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -518,19 +534,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,10 +555,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,23 +567,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -820,11 +836,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -875,30 +889,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -910,14 +924,14 @@
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
@@ -938,14 +952,14 @@
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
@@ -966,19 +980,19 @@
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
         <v>12</v>
@@ -994,19 +1008,19 @@
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>12</v>
@@ -1015,21 +1029,21 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1043,76 +1057,78 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="C8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -1125,22 +1141,22 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1151,72 +1167,72 @@
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1225,55 +1241,81 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="145" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="28"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="146" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="28"/>
+      <c r="E146" s="26"/>
     </row>
     <row r="147" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="28"/>
+      <c r="E147" s="26"/>
     </row>
     <row r="148" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E148" s="28"/>
-    </row>
-    <row r="170" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E170" s="28"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="26"/>
     </row>
     <row r="171" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E171" s="28"/>
+      <c r="E171" s="26"/>
     </row>
     <row r="172" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E172" s="28"/>
+      <c r="E172" s="26"/>
     </row>
     <row r="173" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E173" s="28"/>
+      <c r="E173" s="26"/>
+    </row>
+    <row r="174" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,31 +1324,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1552,6 +1569,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1603,9 +1645,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1630,22 +1685,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C6B73-60C3-4A92-A623-936547AB6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A56184-BD26-49B2-9F59-28E8D6242BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>Alias Export</t>
   </si>
 </sst>
 </file>
@@ -836,22 +839,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.453125" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" customWidth="1"/>
-    <col min="5" max="5" width="143.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="12" width="15" customWidth="1"/>
+    <col min="4" max="5" width="41.453125" customWidth="1"/>
+    <col min="6" max="6" width="143.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,31 +870,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -903,21 +911,24 @@
         <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -931,21 +942,24 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -959,21 +973,24 @@
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -987,21 +1004,24 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1015,21 +1035,24 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1043,21 +1066,24 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1071,21 +1097,24 @@
         <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1098,20 +1127,23 @@
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1124,20 +1156,23 @@
       <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1150,20 +1185,23 @@
       <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1176,20 +1214,23 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1202,20 +1243,23 @@
       <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1228,20 +1272,23 @@
       <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1254,20 +1301,23 @@
       <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1280,42 +1330,45 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-    </row>
-    <row r="146" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E149" s="26"/>
-    </row>
-    <row r="171" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E174" s="26"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="146" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="26"/>
+    </row>
+    <row r="147" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="26"/>
+    </row>
+    <row r="171" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="26"/>
+    </row>
+    <row r="172" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="26"/>
+    </row>
+    <row r="173" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="26"/>
+    </row>
+    <row r="174" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,6 +1377,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1569,31 +1647,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1645,22 +1698,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1685,9 +1725,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d50155\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C6B73-60C3-4A92-A623-936547AB6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE92154-7403-4F32-B1E6-6AC1F891F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -838,7 +838,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -846,7 +848,7 @@
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="41.453125" customWidth="1"/>
-    <col min="5" max="5" width="143.81640625" customWidth="1"/>
+    <col min="5" max="5" width="156.90625" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" customWidth="1"/>
     <col min="7" max="12" width="15" customWidth="1"/>
   </cols>
@@ -1106,7 +1108,9 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -1132,7 +1136,9 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1158,7 +1164,9 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1184,7 +1192,9 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1210,7 +1220,9 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1236,7 +1248,9 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1262,7 +1276,9 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1288,7 +1304,9 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>

--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC24BA-2EA5-4C98-A0CA-A44DBB4D8F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03F959-413D-44B9-80A4-61394A15666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -188,6 +188,51 @@
   </si>
   <si>
     <t>Alias Export</t>
+  </si>
+  <si>
+    <t>REFERENCED_REPORTS</t>
+  </si>
+  <si>
+    <t>NUCLEAR_SECTION_4-26_RD</t>
+  </si>
+  <si>
+    <t>NUCLEAR_SECTION_4-27_CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>NUCLEAR_SECTION_4-28_SAFE_OPERATION</t>
+  </si>
+  <si>
+    <t>FOSSIL_SECTION_4-29_CONSTRUCTION_ELECTRIC</t>
+  </si>
+  <si>
+    <t>FOSSIL_SECTION_4-30_RD_CONSTRUCTION_POWER</t>
+  </si>
+  <si>
+    <t>FOSSIL_SECTION_4-31_HEAT_GEN</t>
+  </si>
+  <si>
+    <t>REV_ALIGNED_DENOMINATOR</t>
+  </si>
+  <si>
+    <t>CAPEX_ALIGNED_DENOMINATOR</t>
+  </si>
+  <si>
+    <t>REV_ALIGNED_NUMERATOR</t>
+  </si>
+  <si>
+    <t>CAPEX_ALIGNED_NUMERATOR</t>
+  </si>
+  <si>
+    <t>REV_NON_ALIGNED_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CAPEX_NON_ALIGNED_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>REV_NON_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CAPEX_NON_ELIGIBLE</t>
   </si>
 </sst>
 </file>
@@ -500,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -588,10 +633,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -848,21 +890,21 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="5" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="156.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="5" width="41.453125" customWidth="1"/>
+    <col min="6" max="6" width="156.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -916,7 +958,9 @@
       <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
@@ -932,7 +976,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -945,7 +989,9 @@
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
@@ -961,7 +1007,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -974,7 +1020,9 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1038,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1003,7 +1051,9 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1069,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1032,7 +1082,9 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1100,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1061,7 +1113,9 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1131,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1090,7 +1144,9 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1162,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1119,7 +1175,9 @@
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1193,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1148,7 +1206,9 @@
       <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1224,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1177,7 +1237,9 @@
       <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1193,7 +1255,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1206,7 +1268,9 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
@@ -1222,7 +1286,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1235,7 +1299,9 @@
       <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
@@ -1251,7 +1317,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1264,7 +1330,9 @@
       <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
@@ -1280,7 +1348,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1293,7 +1361,9 @@
       <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>45</v>
       </c>
@@ -1309,7 +1379,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1322,7 +1392,9 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="8" t="s">
         <v>46</v>
       </c>
@@ -1338,28 +1410,28 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="146" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F146" s="26"/>
     </row>
-    <row r="147" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F147" s="26"/>
     </row>
-    <row r="148" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F148" s="26"/>
     </row>
-    <row r="149" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F149" s="26"/>
     </row>
-    <row r="171" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F171" s="26"/>
     </row>
-    <row r="172" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F172" s="26"/>
     </row>
-    <row r="173" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F173" s="26"/>
     </row>
-    <row r="174" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F174" s="26"/>
     </row>
   </sheetData>
@@ -1369,6 +1441,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1418,32 +1499,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
-      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
-      <Description>JFHTZT72FDVU-254938863-279</Description>
-    </_dlc_DocIdUrl>
-    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
-    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1689,7 +1745,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="fa7e5010-1311-4096-a344-326d1919664c">
+      <Url>https://intranet.d-fine.de/intern/miscellaneous/TemplateFramework/_layouts/15/DocIdRedir.aspx?ID=JFHTZT72FDVU-254938863-279</Url>
+      <Description>JFHTZT72FDVU-254938863-279</Description>
+    </_dlc_DocIdUrl>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Tools xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <Comments xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27" xsi:nil="true"/>
+    <Document_x0020_Category xmlns="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -1697,34 +1777,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1743,4 +1796,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="255ceb00-0504-4451-971c-89cf8ee3ad27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="953edb04-63dd-49ba-ad7b-e9d17e0e7f06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03F959-413D-44B9-80A4-61394A15666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE4FEA3-54F1-4B5F-AAB2-3A54C68D5539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -193,22 +206,22 @@
     <t>REFERENCED_REPORTS</t>
   </si>
   <si>
-    <t>NUCLEAR_SECTION_4-26_RD</t>
-  </si>
-  <si>
-    <t>NUCLEAR_SECTION_4-27_CONSTRUCTION</t>
-  </si>
-  <si>
-    <t>NUCLEAR_SECTION_4-28_SAFE_OPERATION</t>
-  </si>
-  <si>
-    <t>FOSSIL_SECTION_4-29_CONSTRUCTION_ELECTRIC</t>
-  </si>
-  <si>
-    <t>FOSSIL_SECTION_4-30_RD_CONSTRUCTION_POWER</t>
-  </si>
-  <si>
-    <t>FOSSIL_SECTION_4-31_HEAT_GEN</t>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_26</t>
+  </si>
+  <si>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_27</t>
+  </si>
+  <si>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_28</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_29</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_30</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_31</t>
   </si>
   <si>
     <t>REV_ALIGNED_DENOMINATOR</t>
@@ -223,10 +236,10 @@
     <t>CAPEX_ALIGNED_NUMERATOR</t>
   </si>
   <si>
-    <t>REV_NON_ALIGNED_ELIGIBLE</t>
-  </si>
-  <si>
-    <t>CAPEX_NON_ALIGNED_ELIGIBLE</t>
+    <t>REV_NON_ALIGNED</t>
+  </si>
+  <si>
+    <t>CAPEX_NON_ALIGNED</t>
   </si>
   <si>
     <t>REV_NON_ELIGIBLE</t>
@@ -545,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -631,9 +644,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -890,21 +900,21 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="5" width="41.453125" customWidth="1"/>
-    <col min="6" max="6" width="156.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="156.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -976,7 +986,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -989,7 +999,7 @@
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1007,7 +1017,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1038,7 +1048,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1051,7 +1061,7 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1069,7 +1079,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1082,7 +1092,7 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1100,7 +1110,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1113,7 +1123,7 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1131,7 +1141,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1144,7 +1154,7 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1162,7 +1172,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1193,7 +1203,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1224,7 +1234,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1255,7 +1265,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1286,7 +1296,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1317,7 +1327,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1348,7 +1358,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1379,7 +1389,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1410,28 +1420,28 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="146" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F146" s="26"/>
     </row>
-    <row r="147" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F147" s="26"/>
     </row>
-    <row r="148" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F148" s="26"/>
     </row>
-    <row r="149" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="26"/>
     </row>
-    <row r="171" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F171" s="26"/>
     </row>
-    <row r="172" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F172" s="26"/>
     </row>
-    <row r="173" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F173" s="26"/>
     </row>
-    <row r="174" spans="6:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="26"/>
     </row>
   </sheetData>
@@ -1441,65 +1451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100135AEE51B13C7A4784C7A6FB658DD0E0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2ccf66da846160ccad12796df698db1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa7e5010-1311-4096-a344-326d1919664c" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="255ceb00-0504-4451-971c-89cf8ee3ad27" xmlns:ns5="953edb04-63dd-49ba-ad7b-e9d17e0e7f06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd9e9067e801230649229059a2f6238c" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1745,7 +1696,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="fa7e5010-1311-4096-a344-326d1919664c">JFHTZT72FDVU-254938863-279</_dlc_DocId>
@@ -1761,23 +1712,66 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E80A2-72F6-4920-8A44-B99818E21D00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1798,7 +1792,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7017BB2C-A3F1-4167-848C-B358A8DC1CB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="fa7e5010-1311-4096-a344-326d1919664c"/>
@@ -1815,4 +1809,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B7321-043A-43C5-BAA4-E29877D5579D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E0ED53-E837-41F7-A9C9-5E67E49390EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
+++ b/dataland-framework-toolbox/inputs/nuclear-and-gas/nuclear-and-gas.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d50155\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\nuclear-and-gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE92154-7403-4F32-B1E6-6AC1F891F0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE4FEA3-54F1-4B5F-AAB2-3A54C68D5539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -185,6 +198,54 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>Alias Export</t>
+  </si>
+  <si>
+    <t>REFERENCED_REPORTS</t>
+  </si>
+  <si>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_26</t>
+  </si>
+  <si>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_27</t>
+  </si>
+  <si>
+    <t>NUCLEAR_ENERGY_ACTIVITIES_SEC_4_28</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_29</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_30</t>
+  </si>
+  <si>
+    <t>FOSSIL_GAS_ACTIVITIES_SEC_4_31</t>
+  </si>
+  <si>
+    <t>REV_ALIGNED_DENOMINATOR</t>
+  </si>
+  <si>
+    <t>CAPEX_ALIGNED_DENOMINATOR</t>
+  </si>
+  <si>
+    <t>REV_ALIGNED_NUMERATOR</t>
+  </si>
+  <si>
+    <t>CAPEX_ALIGNED_NUMERATOR</t>
+  </si>
+  <si>
+    <t>REV_NON_ALIGNED</t>
+  </si>
+  <si>
+    <t>CAPEX_NON_ALIGNED</t>
+  </si>
+  <si>
+    <t>REV_NON_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CAPEX_NON_ELIGIBLE</t>
   </si>
 </sst>
 </file>
@@ -836,24 +897,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" customWidth="1"/>
-    <col min="5" max="5" width="156.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="12" width="15" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="156.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,31 +928,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -905,21 +969,24 @@
         <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -933,21 +1000,24 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -961,21 +1031,24 @@
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -989,21 +1062,24 @@
         <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1017,21 +1093,24 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1045,21 +1124,24 @@
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1073,21 +1155,24 @@
         <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1100,22 +1185,25 @@
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1128,22 +1216,25 @@
       <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1156,22 +1247,25 @@
       <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1184,22 +1278,25 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1212,22 +1309,25 @@
       <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1240,22 +1340,25 @@
       <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1268,22 +1371,25 @@
       <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1296,44 +1402,47 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-    </row>
-    <row r="146" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="26"/>
-    </row>
-    <row r="148" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E149" s="26"/>
-    </row>
-    <row r="171" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174" spans="5:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E174" s="26"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="146" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="26"/>
+    </row>
+    <row r="147" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="26"/>
+    </row>
+    <row r="171" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="26"/>
+    </row>
+    <row r="172" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="26"/>
+    </row>
+    <row r="173" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="26"/>
+    </row>
+    <row r="174" spans="6:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
